--- a/src/kinematics/Konum Hesaplama.xlsx
+++ b/src/kinematics/Konum Hesaplama.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usakl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usakl\Desktop\ulas.dev\Platform\src\kinematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D059EC-A4C8-4471-8055-F32B8FD31259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3774EF30-3173-4642-9CC4-2B425550A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,22 +257,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -285,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -299,6 +289,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,19 +582,19 @@
   <dimension ref="B2:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="16.7109375" style="4"/>
-    <col min="6" max="6" width="6.140625" style="4" customWidth="1"/>
-    <col min="7" max="10" width="16.7109375" style="4"/>
-    <col min="11" max="11" width="6.42578125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="16.7109375" style="4"/>
+    <col min="1" max="5" width="16.6640625" style="4"/>
+    <col min="6" max="6" width="6.109375" style="4" customWidth="1"/>
+    <col min="7" max="10" width="16.6640625" style="4"/>
+    <col min="11" max="11" width="6.44140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="16.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -609,336 +608,336 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
-        <v>58</v>
-      </c>
-      <c r="D4" s="6">
-        <v>30</v>
-      </c>
-      <c r="E4" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>50</v>
       </c>
-      <c r="D5" s="6">
-        <v>39</v>
-      </c>
-      <c r="E5" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="4">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
-        <v>48</v>
-      </c>
-      <c r="D6" s="6">
-        <v>52</v>
-      </c>
-      <c r="E6" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="4">
+        <v>61</v>
+      </c>
+      <c r="D6" s="4">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9">
-        <v>36</v>
-      </c>
-      <c r="E7" s="10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="C7" s="8">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <f>C4-C11</f>
-        <v>58</v>
-      </c>
-      <c r="D12" s="18">
+        <v>49</v>
+      </c>
+      <c r="D12" s="14">
         <f>D4-D11</f>
-        <v>30</v>
-      </c>
-      <c r="E12" s="19">
+        <v>56</v>
+      </c>
+      <c r="E12" s="15">
         <f>E4-E11</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14">
+        <f>C7-C12</f>
+        <v>-17</v>
+      </c>
+      <c r="D13" s="14">
+        <f>D7-D12</f>
+        <v>-12</v>
+      </c>
+      <c r="E13" s="15">
+        <f>E7-E12</f>
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="17">
+        <f>C3-C13</f>
+        <v>17</v>
+      </c>
+      <c r="D14" s="17">
+        <f>D3-D13</f>
         <v>12</v>
       </c>
-      <c r="C13" s="18">
-        <f>C7-C12</f>
-        <v>-31</v>
-      </c>
-      <c r="D13" s="18">
-        <f>D7-D12</f>
+      <c r="E14" s="18">
+        <f>E3-E13</f>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="19">
-        <f>E7-E12</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="21">
-        <f>C3-C13</f>
-        <v>31</v>
-      </c>
-      <c r="D14" s="21">
-        <f>D3-D13</f>
-        <v>-6</v>
-      </c>
-      <c r="E14" s="22">
-        <f>E3-E13</f>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <f>C5</f>
         <v>50</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="14">
         <f>D5</f>
-        <v>39</v>
-      </c>
-      <c r="E19" s="19">
+        <v>40</v>
+      </c>
+      <c r="E19" s="15">
         <f>E5</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <f>C7-C19</f>
-        <v>-23</v>
-      </c>
-      <c r="D20" s="18">
+        <v>-18</v>
+      </c>
+      <c r="D20" s="14">
         <f>D7-D19</f>
-        <v>-3</v>
-      </c>
-      <c r="E20" s="19">
+        <v>4</v>
+      </c>
+      <c r="E20" s="15">
         <f>E7-E19</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="17">
         <f>C3-C20</f>
-        <v>23</v>
-      </c>
-      <c r="D21" s="21">
+        <v>18</v>
+      </c>
+      <c r="D21" s="17">
         <f>D3-D20</f>
+        <v>-4</v>
+      </c>
+      <c r="E21" s="18">
+        <f>E3-E20</f>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="22">
-        <f>E3-E20</f>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C6</f>
+        <v>61</v>
+      </c>
+      <c r="D26" s="14">
+        <f>D6</f>
+        <v>31</v>
+      </c>
+      <c r="E26" s="15">
+        <f>E6</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="14">
+        <f>C7-C26</f>
+        <v>-29</v>
+      </c>
+      <c r="D27" s="14">
+        <f>D7-D26</f>
+        <v>13</v>
+      </c>
+      <c r="E27" s="15">
+        <f>E7-E26</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="18">
-        <v>0</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="18">
-        <f>C6</f>
-        <v>48</v>
-      </c>
-      <c r="D26" s="18">
-        <f>D6</f>
-        <v>52</v>
-      </c>
-      <c r="E26" s="19">
-        <f>E6</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="18">
-        <f>C7-C26</f>
-        <v>-21</v>
-      </c>
-      <c r="D27" s="18">
-        <f>D7-D26</f>
-        <v>-16</v>
-      </c>
-      <c r="E27" s="19">
-        <f>E7-E26</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="21">
+      <c r="C28" s="17">
         <f>C3-C27</f>
-        <v>21</v>
-      </c>
-      <c r="D28" s="21">
+        <v>29</v>
+      </c>
+      <c r="D28" s="17">
         <f>D3-D27</f>
-        <v>16</v>
-      </c>
-      <c r="E28" s="22">
+        <v>-13</v>
+      </c>
+      <c r="E28" s="18">
         <f>E3-E27</f>
-        <v>-26</v>
+        <v>-19</v>
       </c>
     </row>
   </sheetData>

--- a/src/kinematics/Konum Hesaplama.xlsx
+++ b/src/kinematics/Konum Hesaplama.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usakl\Desktop\ulas.dev\Platform\src\kinematics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usakl\Desktop\Dökümanlar\[03]YTU\M2LAB\Platform\src\kinematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3774EF30-3173-4642-9CC4-2B425550A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABDEDE8-F29F-4DA4-9DE0-E0D1891D9790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
   <dimension ref="B2:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
